--- a/analyze/FeatureList.xlsx
+++ b/analyze/FeatureList.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{536EBDE5-5CCD-48A4-9588-691E779745DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{77A34EC4-2A02-48D8-B302-38187C4B50C6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -735,8 +735,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F43" sqref="A3:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
